--- a/data/behavior_data/benCom_Motor_GI_function.xlsx
+++ b/data/behavior_data/benCom_Motor_GI_function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Behavior data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AnaSandisk/Maz Lab/Writing/Paper/Data availability/Behavior data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2610" documentId="8_{39D4D147-4429-574F-BC45-06994F36C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256C9DB2-73DE-D044-A4F4-7599ABAD8FFA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34675046-24FF-1743-8988-09B3CAE014F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="23200" windowHeight="22760" activeTab="3" xr2:uid="{12F844C0-1965-3644-8791-3B6E59A50BDF}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="23200" windowHeight="22760" firstSheet="1" activeTab="10" xr2:uid="{12F844C0-1965-3644-8791-3B6E59A50BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Beam_time" sheetId="3" r:id="rId1"/>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -187,9 +187,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46E59DD-02B4-EA4E-8E2A-C6B8ED27F6A2}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -1239,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879DF4D-0700-3B40-A9B8-A074C4883169}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1561,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G14" s="1">
-        <v>480</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2001,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2024,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2155,8 +2152,8 @@
       <c r="D40" s="1">
         <v>2368</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2191,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED0863F-C9A1-6949-88A7-BBCFD1E74697}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3095,8 +3092,8 @@
       <c r="D40" s="1">
         <v>2368</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3238,19 +3235,19 @@
       <c r="E6" s="1">
         <v>40.5</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3268,21 +3265,21 @@
       <c r="E7" s="1">
         <v>36.5</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3300,21 +3297,21 @@
       <c r="E8" s="1">
         <v>31.5</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3884,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85777EB7-B9A3-254B-AC77-595443673D04}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -4872,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0BFE3B-0E1D-5A41-847E-1276602F74F5}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E41"/>
+    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5581,7 +5578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E0693B-6207-2F46-B847-74C3F3F6CB0C}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -6288,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC1467B-34CC-324E-B898-F86317A4BF26}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6997,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64744872-C329-0E41-8729-87740A72EC90}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -7706,7 +7703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F8C826-9FCF-6740-B9FB-EBA1A33627DB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -8416,7 +8413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A861197-672B-B342-9A76-C2E08E046260}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -9126,8 +9123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAEF9FF-4841-4242-89AE-955A67B6DBF0}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9145,19 +9142,19 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -9177,20 +9174,20 @@
       <c r="D2" s="1">
         <v>2328</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>1013.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="1">
         <v>1053</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="1">
         <v>1031</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="1">
         <f>F2-E2</f>
         <v>39.5</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="1">
         <f>G2-E2</f>
         <v>17.5</v>
       </c>
@@ -9211,20 +9208,20 @@
       <c r="D3" s="1">
         <v>2330</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>1002.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="1">
         <v>1075</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="1">
         <v>1025.5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H22" si="0">F3-E3</f>
         <v>72.5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I22" si="1">G3-E3</f>
         <v>23</v>
       </c>
@@ -9245,20 +9242,20 @@
       <c r="D4" s="1">
         <v>2332</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>1010</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="1">
         <v>1062.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="1">
         <v>1033</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -9279,20 +9276,20 @@
       <c r="D5" s="1">
         <v>2337</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>1006.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="1">
         <v>1074</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="1">
         <v>1032</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
@@ -9313,20 +9310,20 @@
       <c r="D6" s="1">
         <v>2338</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>1002.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="1">
         <v>1050</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="1">
         <v>1018.5</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -9347,20 +9344,20 @@
       <c r="D7" s="1">
         <v>2348</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>1002.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="1">
         <v>1125</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="1">
         <v>1028.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>122.5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -9381,20 +9378,20 @@
       <c r="D8" s="1">
         <v>2349</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>996.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="1">
         <v>1072</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="1">
         <v>1012</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
@@ -9415,20 +9412,20 @@
       <c r="D9" s="1">
         <v>2334</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>1001.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="1">
         <v>1035.5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="1">
         <v>1018</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -9449,20 +9446,20 @@
       <c r="D10" s="1">
         <v>2335</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>1020</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>1053.5</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>1037</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -9483,20 +9480,20 @@
       <c r="D11" s="1">
         <v>2336</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>991</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="1">
         <v>1017</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="1">
         <v>1005.5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
@@ -9517,20 +9514,20 @@
       <c r="D12" s="1">
         <v>2333</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>1003.5</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="1">
         <v>1032</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="1">
         <v>1014.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -9551,20 +9548,20 @@
       <c r="D13" s="1">
         <v>2350</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>1016.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="1">
         <v>1045.5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="1">
         <v>1028</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
@@ -9585,20 +9582,20 @@
       <c r="D14" s="1">
         <v>2351</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>1004</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="1">
         <v>1053.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="1">
         <v>1031</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -9619,20 +9616,20 @@
       <c r="D15" s="1">
         <v>2327</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>1007.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="1">
         <v>1073</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="1">
         <v>1031.5</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -9653,20 +9650,20 @@
       <c r="D16" s="1">
         <v>2329</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <v>1002.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="1">
         <v>1049.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="1">
         <v>1024</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
@@ -9687,20 +9684,20 @@
       <c r="D17" s="1">
         <v>2331</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="1">
         <v>1024</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="1">
         <v>1052.5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="1">
         <v>1037.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
@@ -9721,20 +9718,20 @@
       <c r="D18" s="1">
         <v>2339</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <v>1012</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="1">
         <v>1044</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="1">
         <v>1030</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -9755,20 +9752,20 @@
       <c r="D19" s="1">
         <v>2341</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="1">
         <v>985.5</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="1">
         <v>1015</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="1">
         <v>998.5</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -9789,20 +9786,20 @@
       <c r="D20" s="1">
         <v>2345</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="1">
         <v>1002</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="1">
         <v>1092</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="1">
         <v>1036.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="1">
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
@@ -9823,20 +9820,20 @@
       <c r="D21" s="1">
         <v>2346</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="1">
         <v>1024.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="1">
         <v>1126.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="1">
         <v>1062</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="1">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
@@ -9857,20 +9854,20 @@
       <c r="D22" s="1">
         <v>2347</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="1">
         <v>1003.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="1">
         <v>1029</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="1">
         <v>1021.5</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -9891,20 +9888,20 @@
       <c r="D23" s="1">
         <v>2352</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="1">
         <v>940.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="1">
         <v>995</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="1">
         <v>956</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="1">
         <f>F23-E23</f>
         <v>54.5</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="1">
         <f>G23-E23</f>
         <v>15.5</v>
       </c>
@@ -9925,20 +9922,20 @@
       <c r="D24" s="1">
         <v>2353</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="1">
         <v>979.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="1">
         <v>1100.5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="1">
         <v>1018.5</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="1">
         <f t="shared" ref="H24:H41" si="2">F24-E24</f>
         <v>121</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="1">
         <f t="shared" ref="I24:I39" si="3">G24-E24</f>
         <v>39</v>
       </c>
@@ -9959,20 +9956,20 @@
       <c r="D25" s="1">
         <v>2359</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="1">
         <v>1012</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="1">
         <v>1047.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="1">
         <v>1031</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -9993,20 +9990,20 @@
       <c r="D26" s="1">
         <v>2360</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="1">
         <v>1008</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="1">
         <v>1065.5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="1">
         <v>1033</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="1">
         <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -10027,20 +10024,20 @@
       <c r="D27" s="1">
         <v>2371</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="1">
         <v>979</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="1">
         <v>1050.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="1">
         <v>1011</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="1">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -10061,20 +10058,20 @@
       <c r="D28" s="1">
         <v>2372</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="1">
         <v>1018</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="1">
         <v>1089</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="1">
         <v>1039</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -10095,13 +10092,13 @@
       <c r="D29" s="1">
         <v>2375</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="1">
         <v>1002</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -10117,20 +10114,20 @@
       <c r="D30" s="1">
         <v>2376</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="1">
         <v>1013.5</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="1">
         <v>1044.5</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="1">
         <v>1030.5</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -10151,20 +10148,20 @@
       <c r="D31" s="1">
         <v>2354</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="1">
         <v>1012.5</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>1048</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="6">
         <v>1031.5</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="1">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -10185,20 +10182,20 @@
       <c r="D32" s="1">
         <v>2355</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="1">
         <v>974</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="1">
         <v>1031</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="1">
         <v>1003</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="1">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="1">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -10219,20 +10216,20 @@
       <c r="D33" s="1">
         <v>2374</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="1">
         <v>1005</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="1">
         <v>1039</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="1">
         <v>1023</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="1">
         <f>G33-E33</f>
         <v>18</v>
       </c>
@@ -10253,20 +10250,20 @@
       <c r="D34" s="1">
         <v>2377</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="1">
         <v>1006</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="1">
         <v>1036</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="1">
         <v>1026</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -10287,20 +10284,20 @@
       <c r="D35" s="1">
         <v>2370</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="1">
         <v>969.5</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="1">
         <v>1001.5</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="1">
         <v>986.5</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -10321,20 +10318,20 @@
       <c r="D36" s="1">
         <v>2356</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="1">
         <v>934</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="1">
         <v>974</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="1">
         <v>955.5</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="1">
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
@@ -10355,20 +10352,20 @@
       <c r="D37" s="1">
         <v>2357</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="1">
         <v>1003.5</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="1">
         <v>1047.5</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="1">
         <v>1029.5</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="1">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -10389,20 +10386,20 @@
       <c r="D38" s="1">
         <v>2358</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="1">
         <v>1012</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="1">
         <v>1071</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="1">
         <v>1026</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="1">
         <f>F38-E38</f>
         <v>59</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -10423,20 +10420,20 @@
       <c r="D39" s="1">
         <v>2361</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="1">
         <v>980.5</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="1">
         <v>1018.5</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="1">
         <v>1003.5</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="1">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -10457,11 +10454,11 @@
       <c r="D40" s="1">
         <v>2368</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -10477,20 +10474,20 @@
       <c r="D41" s="1">
         <v>2362</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="1">
         <v>935</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="1">
         <v>971.5</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="1">
         <v>952</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="1">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="1">
         <f>G41-E41</f>
         <v>17</v>
       </c>
